--- a/public/20220323_SUGGEREIX_Taula_C1.xlsx
+++ b/public/20220323_SUGGEREIX_Taula_C1.xlsx
@@ -490,7 +490,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="124">
   <si>
     <t xml:space="preserve">Taula C1. Paràmetres i indicadors recomanats per al monitoratge de l'eficiència dels tractaments</t>
   </si>
@@ -716,12 +716,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dosi monocloramina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absorbància radiació UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomassa</t>
   </si>
   <si>
     <t xml:space="preserve">I1</t>
@@ -1514,162 +1508,162 @@
   <dimension ref="A1:GB30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="FG8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="FG1" activeCellId="0" sqref="FG1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="FM14" activeCellId="0" sqref="FM14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="29" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="31" min="31" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="33" min="33" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="35" min="35" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="39" min="39" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="43" min="43" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="45" min="45" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="47" min="47" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="54" min="48" style="4" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="59" min="57" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="63" min="62" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="3" width="13.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="65" style="4" width="13.01"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="29" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="31" min="31" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="33" min="33" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="35" min="35" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="39" min="39" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="43" min="43" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="45" min="45" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="47" min="47" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="54" min="48" style="4" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="59" min="57" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="63" min="62" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="3" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="65" style="4" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="68" style="4" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="4" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="71" style="4" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="4" width="13.01"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="74" min="74" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="75" min="75" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="76" min="76" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="77" min="77" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="78" min="78" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="79" min="79" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="80" min="80" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="81" min="81" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="82" min="82" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="83" min="83" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="84" min="84" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="85" min="85" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="86" min="86" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="88" min="88" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="89" min="89" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="90" min="90" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="91" min="91" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="92" min="92" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="93" min="93" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="94" min="94" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="95" min="95" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="96" min="96" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="97" min="97" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="98" min="98" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="99" min="99" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="100" min="100" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="101" min="101" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="102" min="102" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="103" min="103" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="104" min="104" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="105" min="105" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="106" min="106" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="107" min="107" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="108" min="108" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="109" min="109" style="3" width="9.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="110" min="110" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="111" min="111" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="112" min="112" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="113" min="113" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="114" min="114" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="115" min="115" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="117" min="116" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="118" min="118" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="119" min="119" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="120" min="120" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="121" min="121" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="122" min="122" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="123" min="123" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="124" min="124" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="125" min="125" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="126" min="126" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="127" min="127" style="2" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="128" min="128" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="129" min="129" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="130" min="130" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="131" min="131" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="132" min="132" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="133" min="133" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="134" min="134" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="135" min="135" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="136" min="136" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="137" min="137" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="138" min="138" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="139" min="139" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="140" min="140" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="141" min="141" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="142" min="142" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="143" min="143" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="144" min="144" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="145" min="145" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="146" min="146" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="147" min="147" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="148" min="148" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="149" min="149" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="150" min="150" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="151" min="151" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="152" min="152" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="153" min="153" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="154" min="154" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="155" min="155" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="156" min="156" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="157" min="157" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="158" min="158" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="165" min="159" style="4" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="166" min="166" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="167" min="167" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="169" min="168" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="170" min="170" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="171" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="4" width="13.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="74" min="74" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="75" min="75" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="76" min="76" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="77" min="77" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="78" min="78" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="79" min="79" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="80" min="80" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="81" min="81" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="82" min="82" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="83" min="83" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="84" min="84" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="85" min="85" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="86" min="86" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="88" min="88" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="89" min="89" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="90" min="90" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="91" min="91" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="92" min="92" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="93" min="93" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="94" min="94" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="95" min="95" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="96" min="96" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="97" min="97" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="98" min="98" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="99" min="99" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="100" min="100" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="101" min="101" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="102" min="102" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="103" min="103" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="104" min="104" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="105" min="105" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="106" min="106" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="107" min="107" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="108" min="108" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="109" min="109" style="3" width="9.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="110" min="110" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="111" min="111" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="112" min="112" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="113" min="113" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="114" min="114" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="115" min="115" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="117" min="116" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="118" min="118" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="119" min="119" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="120" min="120" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="121" min="121" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="122" min="122" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="123" min="123" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="124" min="124" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="125" min="125" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="126" min="126" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="127" min="127" style="2" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="128" min="128" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="129" min="129" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="130" min="130" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="131" min="131" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="132" min="132" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="133" min="133" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="134" min="134" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="135" min="135" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="136" min="136" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="137" min="137" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="138" min="138" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="139" min="139" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="140" min="140" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="141" min="141" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="142" min="142" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="143" min="143" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="144" min="144" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="145" min="145" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="146" min="146" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="147" min="147" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="148" min="148" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="149" min="149" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="150" min="150" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="151" min="151" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="152" min="152" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="153" min="153" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="154" min="154" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="155" min="155" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="156" min="156" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="157" min="157" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="158" min="158" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="165" min="159" style="4" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="166" min="166" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="167" min="167" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="169" min="168" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="170" min="170" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="171" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2219,7 +2213,7 @@
         <v>33</v>
       </c>
       <c r="FJ4" s="11" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="FK4" s="24"/>
       <c r="FL4" s="24" t="s">
@@ -2233,7 +2227,7 @@
       <c r="FP4" s="11"/>
       <c r="FQ4" s="24"/>
       <c r="FR4" s="24" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="FS4" s="24" t="s">
         <v>38</v>
@@ -2268,193 +2262,193 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="N5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AH5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AH5" s="1" t="s">
+      <c r="AL5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AJ5" s="1" t="s">
+      <c r="AN5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AP5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AN5" s="1" t="s">
+      <c r="AR5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AP5" s="1" t="s">
+      <c r="AT5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AR5" s="1" t="s">
+      <c r="AV5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AT5" s="1" t="s">
+      <c r="AW5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AV5" s="4" t="s">
+      <c r="BV5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AW5" s="4" t="s">
+      <c r="BW5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BV5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW5" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="BX5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BY5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CA5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CB5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CC5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CD5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CE5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CF5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CG5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CI5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CJ5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CK5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CL5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CM5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CN5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CO5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CP5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CQ5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CR5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CS5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CU5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CV5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CW5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CX5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CY5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CZ5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="DA5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="DB5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="DC5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="DD5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="DE5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="DF5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="DG5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="DH5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="DI5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="FQ5" s="3"/>
       <c r="FR5" s="3"/>
@@ -2471,254 +2465,254 @@
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="N6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="V6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="AR6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="AT6" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AU6" s="30"/>
       <c r="AV6" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AZ6" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BA6" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BB6" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="BC6" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="BD6" s="30"/>
       <c r="BE6" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BF6" s="29"/>
       <c r="BH6" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BI6" s="29"/>
       <c r="BJ6" s="30"/>
       <c r="BK6" s="30"/>
       <c r="BL6" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BM6" s="34"/>
       <c r="BN6" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="BO6" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP6" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ6" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR6" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS6" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT6" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU6" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BV6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BO6" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="BP6" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="BQ6" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR6" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS6" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="BT6" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="BU6" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="BV6" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="BW6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BX6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BY6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CA6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CB6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CC6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CD6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CE6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CF6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CG6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CI6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CJ6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CK6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CL6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CM6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CN6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CO6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CP6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CQ6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CR6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CS6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CT6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CU6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CV6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CW6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CX6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CY6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CZ6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="DA6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="DB6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="DC6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="DD6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="DE6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="DF6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="DG6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="DH6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="DI6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="FQ6" s="3"/>
       <c r="FR6" s="3"/>
@@ -2735,438 +2729,438 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="H7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BB7" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="BC7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG7" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="BH7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ7" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="BK7" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="BL7" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P7" s="1" t="s">
+      <c r="BM7" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="BN7" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="T7" s="1" t="s">
+      <c r="BO7" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="U7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="V7" s="1" t="s">
+      <c r="BP7" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="W7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="X7" s="1" t="s">
+      <c r="BQ7" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="Y7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z7" s="1" t="s">
+      <c r="BR7" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="AA7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB7" s="1" t="s">
+      <c r="BS7" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="AC7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD7" s="1" t="s">
+      <c r="BT7" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="AE7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF7" s="1" t="s">
+      <c r="BU7" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH7" s="1" t="s">
+      <c r="DJ7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DK7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="DL7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DM7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="DN7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AI7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
+      <c r="DO7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DP7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="DQ7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="DR7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="DS7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DT7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="DU7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DV7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="DW7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DX7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="DY7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DZ7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="EA7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="EB7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="EC7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="ED7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="EE7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="EF7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="EG7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="EH7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="EI7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="EJ7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="EK7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="EL7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="EM7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="EN7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="EO7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="EP7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="EQ7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="ER7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="ES7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="ET7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="EU7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="EV7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="EW7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="EX7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="EY7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="EZ7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="FA7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="FB7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="FC7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="FD7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="FE7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="FF7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="FG7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="FH7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="FI7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AK7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL7" s="1" t="s">
+      <c r="FJ7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="FK7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="FL7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="FM7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="FN7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AM7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN7" s="1" t="s">
+      <c r="FO7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="FP7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="FQ7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AO7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP7" s="1" t="s">
+      <c r="FR7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AQ7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR7" s="1" t="s">
+      <c r="FS7" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="AS7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT7" s="1" t="s">
+      <c r="FT7" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="AU7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="BB7" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="BC7" s="1" t="s">
+      <c r="FU7" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="BD7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE7" s="1" t="s">
+      <c r="FV7" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="BF7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG7" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="BH7" s="2" t="s">
+      <c r="FW7" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="BI7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BJ7" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="BK7" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="BL7" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="BM7" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="BN7" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="BO7" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="BP7" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="BQ7" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="BR7" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="BS7" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="BT7" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="BU7" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="DJ7" s="1" t="s">
+      <c r="FX7" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="DK7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="DL7" s="1" t="s">
+      <c r="FY7" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="DM7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="DN7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="DO7" s="1" t="s">
+      <c r="FZ7" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="DP7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="DQ7" s="2" t="s">
+      <c r="GA7" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="DR7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="DS7" s="1" t="s">
+      <c r="GB7" s="31" t="s">
         <v>94</v>
-      </c>
-      <c r="DT7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="DU7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DV7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="DW7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DX7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="DY7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DZ7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="EA7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="EB7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="EC7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="ED7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="EE7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="EF7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="EG7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="EH7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="EI7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="EJ7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="EK7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="EL7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="EM7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="EN7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="EO7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="EP7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="EQ7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="ER7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="ES7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="ET7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="EU7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="EV7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="EW7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="EX7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="EY7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="EZ7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="FA7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="FB7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="FC7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="FD7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="FE7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="FF7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="FG7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="FH7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="FI7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="FJ7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="FK7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="FL7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="FM7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="FN7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="FO7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="FP7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="FQ7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="FR7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="FS7" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="FT7" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="FU7" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="FV7" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="FW7" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="FX7" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="FY7" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="FZ7" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="GA7" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="GB7" s="31" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3195,7 +3189,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>1</v>
@@ -3417,100 +3411,100 @@
         <v>0</v>
       </c>
       <c r="BX9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BY9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BZ9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CA9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CB9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CC9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CD9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CE9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CF9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CG9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CH9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CI9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CJ9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CK9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CL9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CM9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CN9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CO9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CP9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CQ9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CR9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CS9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CT9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CU9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CV9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CW9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CX9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CY9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CZ9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="DA9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="DB9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="DC9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="DD9" s="37" t="n">
         <v>0</v>
@@ -3534,13 +3528,13 @@
         <v>68.3772233983162</v>
       </c>
       <c r="DJ9" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="DL9" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DM9" s="1" t="n">
         <v>0</v>
@@ -3549,16 +3543,16 @@
         <v>0</v>
       </c>
       <c r="DO9" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DP9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DR9" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DS9" s="1" t="n">
         <v>0</v>
@@ -3585,16 +3579,16 @@
         <v>0</v>
       </c>
       <c r="EA9" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EB9" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EC9" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="ED9" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EE9" s="1" t="n">
         <v>0</v>
@@ -3723,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="FU9" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FV9" s="4" t="n">
         <v>0</v>
@@ -3749,7 +3743,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>1</v>
@@ -3971,100 +3965,100 @@
         <v>0</v>
       </c>
       <c r="BX10" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BY10" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BZ10" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CA10" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CB10" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CC10" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CD10" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CE10" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CF10" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CG10" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CH10" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CI10" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CJ10" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CK10" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CL10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CM10" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CN10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CO10" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CP10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CQ10" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CR10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CS10" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CT10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CU10" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CV10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CW10" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CX10" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CY10" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CZ10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="DA10" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="DB10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="DC10" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="DD10" s="1" t="n">
         <v>0</v>
@@ -4088,7 +4082,7 @@
         <v>68.3772233983162</v>
       </c>
       <c r="DJ10" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK10" s="3" t="n">
         <v>0</v>
@@ -4100,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="DN10" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DO10" s="1" t="n">
         <v>0</v>
@@ -4109,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="DQ10" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DR10" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DS10" s="1" t="n">
         <v>0</v>
@@ -4121,154 +4115,154 @@
         <v>0</v>
       </c>
       <c r="DU10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="DV10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="DW10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DX10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="DY10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DZ10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="EA10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="EB10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="EC10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="ED10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="EE10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="ER10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DV10" s="3" t="s">
+      <c r="EX10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="DW10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DX10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="DY10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DZ10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="EA10" s="1" t="s">
+      <c r="EY10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="EZ10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="FA10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="FB10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="FC10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="FK10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="FL10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="FO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="FR10" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="EB10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="EC10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="ED10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="EE10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="ER10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="ES10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="EX10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="EY10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="EZ10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="FA10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="FB10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="FC10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="FK10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="FL10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="FO10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="FR10" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="FS10" s="3" t="n">
         <v>0</v>
@@ -4303,7 +4297,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>1</v>
@@ -4525,100 +4519,100 @@
         <v>0</v>
       </c>
       <c r="BX11" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BY11" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BZ11" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CA11" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CB11" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CC11" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CD11" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CE11" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CF11" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CG11" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CH11" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CI11" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CJ11" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CK11" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CL11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CM11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CN11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CO11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CP11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CQ11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CR11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CS11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CT11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CU11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CV11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CW11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CX11" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CY11" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CZ11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="DA11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="DB11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="DC11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="DD11" s="37" t="n">
         <v>0</v>
@@ -4642,7 +4636,7 @@
         <v>68.3772233983162</v>
       </c>
       <c r="DJ11" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK11" s="3" t="n">
         <v>0</v>
@@ -4654,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="DN11" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DO11" s="1" t="n">
         <v>0</v>
@@ -4663,10 +4657,10 @@
         <v>0</v>
       </c>
       <c r="DQ11" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DR11" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DS11" s="1" t="n">
         <v>0</v>
@@ -4675,154 +4669,154 @@
         <v>0</v>
       </c>
       <c r="DU11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="DV11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="DW11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DX11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="DY11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DZ11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="EA11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="EB11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="EC11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="ED11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="EE11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="ER11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DV11" s="3" t="s">
+      <c r="EX11" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="DW11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DX11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="DY11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DZ11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="EA11" s="1" t="s">
+      <c r="EY11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="EZ11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="FA11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="FB11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="FC11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="FK11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="FL11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="FO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="FR11" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="EB11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="EC11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="ED11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="EE11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="ER11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="ES11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="EX11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="EY11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="EZ11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="FA11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="FB11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="FC11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="FK11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="FL11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="FO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="FR11" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="FS11" s="3" t="n">
         <v>0</v>
@@ -4857,7 +4851,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>1</v>
@@ -5079,100 +5073,100 @@
         <v>0</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BY12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BZ12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CA12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CB12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CC12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CD12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CE12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CF12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CG12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CH12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CI12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CJ12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CK12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CL12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CM12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CN12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CO12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CP12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CQ12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CR12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CS12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CT12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CU12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CV12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CW12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CX12" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CY12" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CZ12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="DA12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="DB12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="DC12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="DD12" s="37" t="n">
         <v>0</v>
@@ -5196,7 +5190,7 @@
         <v>68.3772233983162</v>
       </c>
       <c r="DJ12" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK12" s="3" t="n">
         <v>0</v>
@@ -5208,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="DN12" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DO12" s="1" t="n">
         <v>0</v>
@@ -5217,10 +5211,10 @@
         <v>0</v>
       </c>
       <c r="DQ12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DR12" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DS12" s="1" t="n">
         <v>0</v>
@@ -5229,154 +5223,154 @@
         <v>0</v>
       </c>
       <c r="DU12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="DV12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="DW12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DX12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="DY12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DZ12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="EA12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="EB12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="EC12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="ED12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="EE12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="ER12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DV12" s="3" t="s">
+      <c r="EX12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="DW12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DX12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="DY12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DZ12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="EA12" s="1" t="s">
+      <c r="EY12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="EZ12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="FA12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="FB12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="FC12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="FK12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="FL12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="FO12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="FR12" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="EB12" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="EC12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="ED12" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="EE12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="ER12" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="ES12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="EX12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="EY12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="EZ12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="FA12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="FB12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="FC12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="FK12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="FL12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="FO12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="FR12" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="FS12" s="3" t="n">
         <v>0</v>
@@ -5411,7 +5405,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>1</v>
@@ -5750,7 +5744,7 @@
         <v>99</v>
       </c>
       <c r="DJ13" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK13" s="1" t="n">
         <v>0</v>
@@ -5762,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="DN13" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DO13" s="1" t="n">
         <v>0</v>
@@ -5771,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="DQ13" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DR13" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DS13" s="1" t="n">
         <v>0</v>
@@ -5783,154 +5777,154 @@
         <v>0</v>
       </c>
       <c r="DU13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="DV13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="DW13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DX13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="DY13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DZ13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="EA13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="EB13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="EC13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="ED13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="EE13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="ER13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DV13" s="3" t="s">
+      <c r="EX13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="DW13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DX13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="DY13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DZ13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="EA13" s="1" t="s">
+      <c r="EY13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="EZ13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="FA13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="FB13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="FC13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="FJ13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="FK13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="FL13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="FO13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="FR13" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="EB13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="EC13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="ED13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="EE13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="ER13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="ES13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="EX13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="EY13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="EZ13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="FA13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="FB13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="FC13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="FJ13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="FK13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="FL13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="FO13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="FR13" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="FS13" s="3" t="n">
         <v>0</v>
@@ -5965,7 +5959,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>1</v>
@@ -6211,10 +6205,10 @@
         <v>96</v>
       </c>
       <c r="CF14" s="44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CG14" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CH14" s="1" t="n">
         <v>0</v>
@@ -6304,7 +6298,7 @@
         <v>99</v>
       </c>
       <c r="DJ14" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK14" s="1" t="n">
         <v>0</v>
@@ -6316,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="DN14" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DO14" s="1" t="n">
         <v>0</v>
@@ -6325,10 +6319,10 @@
         <v>0</v>
       </c>
       <c r="DQ14" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DR14" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DS14" s="1" t="n">
         <v>0</v>
@@ -6337,154 +6331,154 @@
         <v>0</v>
       </c>
       <c r="DU14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="DV14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="DW14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DX14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="DY14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DZ14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="EA14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="EB14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="EC14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="ED14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="EE14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="ER14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DV14" s="3" t="s">
+      <c r="EX14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="DW14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DX14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="DY14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DZ14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="EA14" s="1" t="s">
+      <c r="EY14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="EZ14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="FA14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="FB14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="FC14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="FJ14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="FK14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="FL14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="FO14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="FR14" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="EB14" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="EC14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="ED14" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="EE14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="ER14" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="ES14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="EX14" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="EY14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="EZ14" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="FA14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="FB14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="FC14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="FJ14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="FK14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="FL14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="FO14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="FR14" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="FS14" s="3" t="n">
         <v>0</v>
@@ -6519,7 +6513,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>1</v>
@@ -6861,7 +6855,7 @@
         <v>99.6018928294465</v>
       </c>
       <c r="DJ15" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK15" s="1" t="n">
         <v>0</v>
@@ -6870,10 +6864,10 @@
         <v>0</v>
       </c>
       <c r="DM15" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DN15" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DO15" s="1" t="n">
         <v>0</v>
@@ -6882,10 +6876,10 @@
         <v>0</v>
       </c>
       <c r="DQ15" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DR15" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DS15" s="1" t="n">
         <v>0</v>
@@ -6894,106 +6888,106 @@
         <v>0</v>
       </c>
       <c r="DU15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="DV15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="DW15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="EB15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="EC15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="ED15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="EE15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ15" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER15" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU15" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV15" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DV15" s="3" t="s">
+      <c r="EX15" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="DW15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="EB15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="EC15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="ED15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="EE15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ15" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER15" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU15" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV15" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="EX15" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="EY15" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="EZ15" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="FA15" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="FB15" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="FC15" s="4" t="n">
         <v>0</v>
@@ -7017,10 +7011,10 @@
         <v>0</v>
       </c>
       <c r="FJ15" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FK15" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FL15" s="1" t="n">
         <v>0</v>
@@ -7050,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="FU15" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FV15" s="4" t="n">
         <v>0</v>
@@ -7076,7 +7070,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>1</v>
@@ -7418,13 +7412,13 @@
         <v>93.0816902908106</v>
       </c>
       <c r="DJ16" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="DL16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DM16" s="1" t="n">
         <v>0</v>
@@ -7439,10 +7433,10 @@
         <v>0</v>
       </c>
       <c r="DQ16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DR16" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DS16" s="1" t="n">
         <v>0</v>
@@ -7469,16 +7463,16 @@
         <v>0</v>
       </c>
       <c r="EA16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EB16" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EC16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="ED16" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EE16" s="1" t="n">
         <v>0</v>
@@ -7517,10 +7511,10 @@
         <v>0</v>
       </c>
       <c r="EQ16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="ER16" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="ES16" s="1" t="n">
         <v>0</v>
@@ -7535,22 +7529,22 @@
         <v>0</v>
       </c>
       <c r="EW16" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="EX16" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="EY16" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="EZ16" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="FA16" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="FB16" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="FC16" s="4" t="n">
         <v>0</v>
@@ -7571,13 +7565,13 @@
         <v>0</v>
       </c>
       <c r="FI16" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FJ16" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FK16" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FL16" s="1" t="n">
         <v>0</v>
@@ -7633,7 +7627,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>1</v>
@@ -7927,10 +7921,10 @@
         <v>20</v>
       </c>
       <c r="CV17" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CW17" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CX17" s="1" t="n">
         <v>67</v>
@@ -7939,16 +7933,16 @@
         <v>87</v>
       </c>
       <c r="CZ17" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="DA17" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="DB17" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="DC17" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="DD17" s="42" t="n">
         <f aca="false">(1-10^-0.81)*100</f>
@@ -7975,16 +7969,16 @@
         <v>93.0816902908106</v>
       </c>
       <c r="DJ17" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="DL17" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DM17" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DN17" s="3" t="n">
         <v>0</v>
@@ -7996,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="DQ17" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DR17" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DS17" s="1" t="n">
         <v>0</v>
@@ -8008,106 +8002,106 @@
         <v>0</v>
       </c>
       <c r="DU17" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="DV17" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="DW17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DX17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="DY17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DZ17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="EA17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="EB17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="EC17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="ED17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="EE17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DV17" s="30" t="s">
+      <c r="EX17" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="DW17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DX17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="DY17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DZ17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="EA17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="EB17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="EC17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="ED17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="EE17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="EX17" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="EY17" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="EZ17" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="FA17" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="FB17" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="FC17" s="4" t="n">
         <v>0</v>
@@ -8128,19 +8122,19 @@
         <v>0</v>
       </c>
       <c r="FI17" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FJ17" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FK17" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FL17" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FM17" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FN17" s="1" t="n">
         <v>0</v>
@@ -8190,7 +8184,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>1</v>
@@ -8436,10 +8430,10 @@
         <v>92.6</v>
       </c>
       <c r="CF18" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CG18" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CH18" s="1" t="n">
         <v>70</v>
@@ -8484,10 +8478,10 @@
         <v>20</v>
       </c>
       <c r="CV18" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CW18" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CX18" s="1" t="n">
         <v>83</v>
@@ -8496,115 +8490,115 @@
         <v>100</v>
       </c>
       <c r="CZ18" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="DA18" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="DB18" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="DC18" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="DD18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DK18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="DM18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DN18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ18" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR18" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU18" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="DV18" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="DW18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DX18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="DY18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DZ18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="EA18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="DA18" s="41" t="s">
+      <c r="EB18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="DB18" s="40" t="s">
+      <c r="EC18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="DC18" s="41" t="s">
+      <c r="ED18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="DD18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="DK18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="DM18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="DN18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ18" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR18" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU18" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="DV18" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="DW18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DX18" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="DY18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DZ18" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="EA18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="EB18" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="EC18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="ED18" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="EE18" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EF18" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EG18" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EH18" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EI18" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EJ18" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EK18" s="29" t="n">
         <v>0</v>
@@ -8619,16 +8613,16 @@
         <v>0</v>
       </c>
       <c r="EO18" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EP18" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EQ18" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="ER18" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="ES18" s="40" t="n">
         <v>0</v>
@@ -8679,19 +8673,19 @@
         <v>0</v>
       </c>
       <c r="FI18" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FJ18" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FK18" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FL18" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FM18" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FN18" s="1" t="n">
         <v>0</v>
@@ -8741,7 +8735,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>1</v>
@@ -9079,7 +9073,7 @@
         <v>99.99</v>
       </c>
       <c r="DJ19" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK19" s="1" t="n">
         <v>0</v>
@@ -9100,10 +9094,10 @@
         <v>0</v>
       </c>
       <c r="DQ19" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DR19" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DS19" s="1" t="n">
         <v>0</v>
@@ -9112,106 +9106,106 @@
         <v>0</v>
       </c>
       <c r="DU19" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="DV19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DV19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW19" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="EX19" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="EY19" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="EZ19" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="FA19" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="FB19" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="FC19" s="4" t="n">
         <v>0</v>
@@ -9232,7 +9226,7 @@
         <v>0</v>
       </c>
       <c r="FI19" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FJ19" s="1" t="n">
         <v>0</v>
@@ -9250,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="FO19" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FP19" s="1" t="n">
         <v>0</v>
@@ -9294,7 +9288,7 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>1</v>
@@ -9588,10 +9582,10 @@
         <v>50</v>
       </c>
       <c r="CV20" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CW20" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CX20" s="1" t="n">
         <v>99</v>
@@ -9636,13 +9630,13 @@
         <v>99.9999</v>
       </c>
       <c r="DJ20" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK20" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DL20" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DM20" s="1" t="n">
         <v>0</v>
@@ -9651,10 +9645,10 @@
         <v>0</v>
       </c>
       <c r="DO20" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DP20" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DQ20" s="2" t="n">
         <v>0</v>
@@ -9669,58 +9663,58 @@
         <v>0</v>
       </c>
       <c r="DU20" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="DV20" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="DW20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="DX20" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="DY20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="DZ20" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="EA20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EB20" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EC20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="ED20" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EE20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EF20" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EG20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EH20" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EI20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EJ20" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EK20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EL20" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EM20" s="1" t="n">
         <v>0</v>
@@ -9729,28 +9723,28 @@
         <v>0</v>
       </c>
       <c r="EO20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EP20" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EQ20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="ER20" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="ES20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="ET20" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EU20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EV20" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EW20" s="1" t="n">
         <v>0</v>
@@ -9759,10 +9753,10 @@
         <v>0</v>
       </c>
       <c r="EY20" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="EZ20" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="FA20" s="1" t="n">
         <v>0</v>
@@ -9789,13 +9783,13 @@
         <v>0</v>
       </c>
       <c r="FI20" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FJ20" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FK20" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FL20" s="1" t="n">
         <v>0</v>
@@ -9807,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="FO20" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FP20" s="1" t="n">
         <v>0</v>
@@ -9851,7 +9845,7 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>1</v>
@@ -10187,13 +10181,13 @@
         <v>0</v>
       </c>
       <c r="DJ21" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="DL21" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DM21" s="1" t="n">
         <v>0</v>
@@ -10202,10 +10196,10 @@
         <v>0</v>
       </c>
       <c r="DO21" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DP21" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DQ21" s="2" t="n">
         <v>0</v>
@@ -10220,34 +10214,34 @@
         <v>0</v>
       </c>
       <c r="DU21" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="DV21" s="3" t="n">
         <v>0</v>
       </c>
       <c r="DW21" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="DX21" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="DY21" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="DZ21" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="EA21" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EB21" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EC21" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="ED21" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EE21" s="1" t="n">
         <v>0</v>
@@ -10340,10 +10334,10 @@
         <v>0</v>
       </c>
       <c r="FI21" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FJ21" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FK21" s="3" t="n">
         <v>0</v>
@@ -10358,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="FO21" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FP21" s="1" t="n">
         <v>0</v>
@@ -10402,7 +10396,7 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>1</v>
@@ -10648,10 +10642,10 @@
         <v>100</v>
       </c>
       <c r="CF22" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CG22" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CH22" s="40" t="n">
         <v>70</v>
@@ -10690,16 +10684,16 @@
         <v>35</v>
       </c>
       <c r="CT22" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CU22" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CV22" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CW22" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CX22" s="1" t="n">
         <v>49</v>
@@ -10738,13 +10732,13 @@
         <v>0</v>
       </c>
       <c r="DJ22" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="DL22" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DM22" s="1" t="n">
         <v>0</v>
@@ -10771,10 +10765,10 @@
         <v>0</v>
       </c>
       <c r="DU22" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="DV22" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="DW22" s="1" t="n">
         <v>0</v>
@@ -10789,28 +10783,28 @@
         <v>0</v>
       </c>
       <c r="EA22" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EB22" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EC22" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="ED22" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EE22" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EF22" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EG22" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EH22" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EI22" s="1" t="n">
         <v>0</v>
@@ -10831,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="EO22" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EP22" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EQ22" s="1" t="n">
         <v>0</v>
@@ -10843,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="ES22" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="ET22" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EU22" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EV22" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EW22" s="1" t="n">
         <v>0</v>
@@ -10891,13 +10885,13 @@
         <v>0</v>
       </c>
       <c r="FI22" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FJ22" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FK22" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FL22" s="1" t="n">
         <v>0</v>
@@ -10953,7 +10947,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>1</v>
@@ -11193,16 +11187,16 @@
         <v>50</v>
       </c>
       <c r="CD23" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CE23" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CF23" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CG23" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CH23" s="40" t="n">
         <v>40</v>
@@ -11241,16 +11235,16 @@
         <v>80</v>
       </c>
       <c r="CT23" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CU23" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CV23" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CW23" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CX23" s="1" t="n">
         <v>6</v>
@@ -11289,13 +11283,13 @@
         <v>0</v>
       </c>
       <c r="DJ23" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="DL23" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DM23" s="1" t="n">
         <v>0</v>
@@ -11322,10 +11316,10 @@
         <v>0</v>
       </c>
       <c r="DU23" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="DV23" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="DW23" s="1" t="n">
         <v>0</v>
@@ -11340,28 +11334,28 @@
         <v>0</v>
       </c>
       <c r="EA23" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EB23" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EC23" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="ED23" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EE23" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EF23" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EG23" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EH23" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EI23" s="1" t="n">
         <v>0</v>
@@ -11382,10 +11376,10 @@
         <v>0</v>
       </c>
       <c r="EO23" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EP23" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EQ23" s="1" t="n">
         <v>0</v>
@@ -11394,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="ES23" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="ET23" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EU23" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EV23" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EW23" s="1" t="n">
         <v>0</v>
@@ -11445,10 +11439,10 @@
         <v>0</v>
       </c>
       <c r="FJ23" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FK23" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FL23" s="29" t="n">
         <v>0</v>
@@ -11481,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="FV23" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FW23" s="4" t="n">
         <v>0</v>
@@ -11504,7 +11498,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>1</v>
@@ -11844,13 +11838,13 @@
         <v>0</v>
       </c>
       <c r="DJ24" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="DL24" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DM24" s="1" t="n">
         <v>0</v>
@@ -11865,7 +11859,7 @@
         <v>0</v>
       </c>
       <c r="DQ24" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DR24" s="3" t="n">
         <v>0</v>
@@ -11877,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="DU24" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="DV24" s="3" t="n">
         <v>0</v>
@@ -11907,16 +11901,16 @@
         <v>0</v>
       </c>
       <c r="EE24" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EF24" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EG24" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EH24" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EI24" s="1" t="n">
         <v>0</v>
@@ -11937,16 +11931,16 @@
         <v>0</v>
       </c>
       <c r="EO24" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EP24" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EQ24" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="ER24" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="ES24" s="1" t="n">
         <v>0</v>
@@ -11979,7 +11973,7 @@
         <v>0</v>
       </c>
       <c r="FC24" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="FD24" s="4" t="n">
         <v>0</v>
@@ -11991,7 +11985,7 @@
         <v>0</v>
       </c>
       <c r="FG24" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FH24" s="4" t="n">
         <v>0</v>
@@ -12000,10 +11994,10 @@
         <v>0</v>
       </c>
       <c r="FJ24" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FK24" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FL24" s="29" t="n">
         <v>0</v>
@@ -12039,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="FW24" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FX24" s="4" t="n">
         <v>0</v>
@@ -12059,7 +12053,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>1</v>
@@ -12353,16 +12347,16 @@
         <v>100</v>
       </c>
       <c r="CV25" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CW25" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CX25" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CY25" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CZ25" s="40" t="n">
         <v>68</v>
@@ -12401,13 +12395,13 @@
         <v>99.9999</v>
       </c>
       <c r="DJ25" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="DL25" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DM25" s="1" t="n">
         <v>0</v>
@@ -12434,7 +12428,7 @@
         <v>0</v>
       </c>
       <c r="DU25" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="DV25" s="3" t="n">
         <v>0</v>
@@ -12464,46 +12458,46 @@
         <v>0</v>
       </c>
       <c r="EE25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EF25" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EG25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EH25" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EI25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EJ25" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EK25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EL25" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EM25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EN25" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EO25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EP25" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EQ25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="ER25" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="ES25" s="1" t="n">
         <v>0</v>
@@ -12512,10 +12506,10 @@
         <v>0</v>
       </c>
       <c r="EU25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EV25" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="EW25" s="1" t="n">
         <v>0</v>
@@ -12557,10 +12551,10 @@
         <v>0</v>
       </c>
       <c r="FJ25" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FK25" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FL25" s="1" t="n">
         <v>0</v>
@@ -12584,10 +12578,10 @@
         <v>0</v>
       </c>
       <c r="FS25" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FT25" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FU25" s="4" t="n">
         <v>0</v>
@@ -12599,7 +12593,7 @@
         <v>0</v>
       </c>
       <c r="FX25" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FY25" s="4" t="n">
         <v>0</v>
@@ -12616,7 +12610,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>1</v>
@@ -12958,13 +12952,13 @@
         <v>90</v>
       </c>
       <c r="DJ26" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="DL26" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DM26" s="1" t="n">
         <v>0</v>
@@ -12979,7 +12973,7 @@
         <v>0</v>
       </c>
       <c r="DQ26" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DR26" s="3" t="n">
         <v>0</v>
@@ -12991,16 +12985,16 @@
         <v>0</v>
       </c>
       <c r="DU26" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="DV26" s="3" t="n">
         <v>0</v>
       </c>
       <c r="DW26" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="DX26" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="DY26" s="1" t="n">
         <v>0</v>
@@ -13093,13 +13087,13 @@
         <v>0</v>
       </c>
       <c r="FC26" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="FD26" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="FE26" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FF26" s="4" t="n">
         <v>0</v>
@@ -13129,7 +13123,7 @@
         <v>0</v>
       </c>
       <c r="FO26" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FP26" s="1" t="n">
         <v>0</v>
@@ -13159,7 +13153,7 @@
         <v>0</v>
       </c>
       <c r="FY26" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FZ26" s="4" t="n">
         <v>0</v>
@@ -13173,7 +13167,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>1</v>
@@ -13514,13 +13508,13 @@
         <v>90</v>
       </c>
       <c r="DJ27" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="DL27" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DM27" s="1" t="n">
         <v>0</v>
@@ -13535,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="DQ27" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DR27" s="3" t="n">
         <v>0</v>
@@ -13547,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="DU27" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="DV27" s="3" t="n">
         <v>0</v>
@@ -13556,7 +13550,7 @@
         <v>0</v>
       </c>
       <c r="DX27" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="DY27" s="1" t="n">
         <v>0</v>
@@ -13649,13 +13643,13 @@
         <v>0</v>
       </c>
       <c r="FC27" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="FD27" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="FE27" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FF27" s="4" t="n">
         <v>0</v>
@@ -13685,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="FO27" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FP27" s="1" t="n">
         <v>0</v>
@@ -13718,7 +13712,7 @@
         <v>0</v>
       </c>
       <c r="FZ27" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="GA27" s="4" t="n">
         <v>0</v>
@@ -13729,7 +13723,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>1</v>
@@ -14071,13 +14065,13 @@
         <v>99.9</v>
       </c>
       <c r="DJ28" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="DL28" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DM28" s="1" t="n">
         <v>0</v>
@@ -14092,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="DQ28" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DR28" s="3" t="n">
         <v>0</v>
@@ -14104,7 +14098,7 @@
         <v>0</v>
       </c>
       <c r="DU28" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="DV28" s="3" t="n">
         <v>0</v>
@@ -14221,7 +14215,7 @@
         <v>0</v>
       </c>
       <c r="FH28" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FI28" s="4" t="n">
         <v>0</v>
@@ -14242,7 +14236,7 @@
         <v>0</v>
       </c>
       <c r="FO28" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FP28" s="1" t="n">
         <v>0</v>
@@ -14278,7 +14272,7 @@
         <v>0</v>
       </c>
       <c r="GA28" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="GB28" s="4" t="n">
         <v>0</v>
@@ -14286,7 +14280,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>1</v>
@@ -14628,13 +14622,13 @@
         <v>99.9999</v>
       </c>
       <c r="DJ29" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="DL29" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DM29" s="1" t="n">
         <v>0</v>
@@ -14811,10 +14805,10 @@
         <v>0</v>
       </c>
       <c r="FS29" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FT29" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FU29" s="4" t="n">
         <v>0</v>
@@ -14843,7 +14837,7 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>1</v>
@@ -15184,13 +15178,13 @@
         <v>99</v>
       </c>
       <c r="DJ30" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="DL30" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DM30" s="1" t="n">
         <v>0</v>
@@ -15205,7 +15199,7 @@
         <v>0</v>
       </c>
       <c r="DQ30" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DR30" s="3" t="n">
         <v>0</v>
@@ -15217,16 +15211,16 @@
         <v>0</v>
       </c>
       <c r="DU30" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="DV30" s="3" t="n">
         <v>0</v>
       </c>
       <c r="DW30" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="DX30" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="DY30" s="1" t="n">
         <v>0</v>
@@ -15319,16 +15313,16 @@
         <v>0</v>
       </c>
       <c r="FC30" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="FD30" s="4" t="n">
         <v>0</v>
       </c>
       <c r="FE30" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FF30" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FG30" s="4" t="n">
         <v>0</v>
@@ -15355,7 +15349,7 @@
         <v>0</v>
       </c>
       <c r="FO30" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="FP30" s="1" t="n">
         <v>0</v>
@@ -15394,7 +15388,7 @@
         <v>0</v>
       </c>
       <c r="GB30" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
